--- a/11/1/Manufacturero 2002 a 2021 - Anual.xlsx
+++ b/11/1/Manufacturero 2002 a 2021 - Anual.xlsx
@@ -984,7 +984,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>101.23</v>
+        <v>101.22</v>
       </c>
     </row>
   </sheetData>
